--- a/retail_revenue_analysis.xlsx
+++ b/retail_revenue_analysis.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul\Downloads\Projects\🧠 21-DAY DATA ANALYST READINESS SPRINT\🗓️ WEEK 1 – EXCEL + BUSINESS THINKING (FOUNDATION)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E79293-F568-4A7B-AE8F-A0D6F64BCF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B183752-A5E0-4E01-A9D3-B345C86AAC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{22C41DE4-6F6A-4E36-873A-A498D6F6CA20}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{22C41DE4-6F6A-4E36-873A-A498D6F6CA20}"/>
   </bookViews>
   <sheets>
-    <sheet name="Clean_Data" sheetId="3" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="1" r:id="rId2"/>
+    <sheet name="Raw_Data" sheetId="4" r:id="rId1"/>
+    <sheet name="Clean_Data" sheetId="3" r:id="rId2"/>
+    <sheet name="KPIs" sheetId="5" r:id="rId3"/>
+    <sheet name="Dashboard" sheetId="1" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clean_Data!$A$1:$N$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clean_Data!$A$1:$N$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="139">
   <si>
     <t>KPI</t>
   </si>
@@ -477,6 +482,253 @@
   <si>
     <t>Refund visualization will activate when refund volume increases.</t>
   </si>
+  <si>
+    <t>Date,Region,Store,Product,Category,Quantity,Unit Price,Discount %,Sales,Revenue,Payment Method</t>
+  </si>
+  <si>
+    <t>2025-01-02,North,Store-001,Red T-Shirt,Menswear,2,19.99,0,39.98,39.98,Credit Card</t>
+  </si>
+  <si>
+    <t>2025-01-02,North,Store-001,Blue Jeans,Menswear,1,49.5,10,44.55,44.55,Cash</t>
+  </si>
+  <si>
+    <t>2025-01-02,North,Store-001,Blue Jeans ,Menswear,1,49.50,0,49.5,49.5,Card</t>
+  </si>
+  <si>
+    <t>2025-01-03,South,Store-014,Sports Shoes,Footwear,3,59.99,5,170.97,170.97,UPI</t>
+  </si>
+  <si>
+    <t>2025-01-03,South,Store-014,Red T-Shirt,MENSWEAR,1,19.99,,19.99,19.99,Credit Card</t>
+  </si>
+  <si>
+    <t>2025-01-03,South,Store-014,White Socks,Accessories,5,4.5,0,22.5,22.5,Cash</t>
+  </si>
+  <si>
+    <t>2025-01-04,East,Store-007,Red T-Shirt,Menswear,0,19.99,0,0,0,Credit Card</t>
+  </si>
+  <si>
+    <t>2025-01-04,East,Store-007,Black Jacket,Outerwear,1,89.99,20,71.992,71.99,Card</t>
+  </si>
+  <si>
+    <t>2025-01-04,East,Store-007,Black Jacket,Outerwear,1,89.99,20,71.992,,Card</t>
+  </si>
+  <si>
+    <t>2025-01-05,West,Store-023,Blue Jeans,Menswear,2,49.5,0,99,99,UPI</t>
+  </si>
+  <si>
+    <t>2025-01-05,West,Store-023,Blue Jeans,MENS WEAR,2,49.50,0,99,,UPI</t>
+  </si>
+  <si>
+    <t>2025-01-05,West,Store-023,Running Shorts,Sportswear,1,24.99,0,24.99,24.99,Credit Card</t>
+  </si>
+  <si>
+    <t>2025-01-06,North,Store-003,White Socks,Accessories,3,4.50,0,13.5,13.50,Cash</t>
+  </si>
+  <si>
+    <t>2025-01-06,North,Store-003,White Socks,Accessories,3,4.5,0,13.5,13.5,Cash</t>
+  </si>
+  <si>
+    <t>2025-01-06,North,Store-003,Red T-Shirt,MENSWEAR,-1,19.99,0,-19.99,-19.99,Refund</t>
+  </si>
+  <si>
+    <t>2025-01-07,South,Store-010,Black Jacket,Outerwear,1,89.99,0,89.99,89.99,Credit Card</t>
+  </si>
+  <si>
+    <t>2025-01-07,South,Store-010,Running Shorts,Sportswear,2,24.99,50,24.99,24.99,Coupon</t>
+  </si>
+  <si>
+    <t>2025-01-07,South,Store-010,Running Shorts,Sportswear,2,24.99,0,49.98,49.98,Coupon</t>
+  </si>
+  <si>
+    <t>2025-01-08,East,Store-005,Red T-Shirt,MENS WEAR,1,19.99,0,19.99,19.99,Cash</t>
+  </si>
+  <si>
+    <t>2025-01-08,East,Store-005,Blue Jeans,Menswear,1,49.5,0,49.5,49.5,Credit Card</t>
+  </si>
+  <si>
+    <t>2025/01/08,East,Store-005,Blue Jeans,Menswear,1,49.5,0,49.5,49.5,Credit Card</t>
+  </si>
+  <si>
+    <t>2025-01-09,West,Store-030,Sports Shoes,Footwear,1,59.99,0,59.99,59.99,UPI</t>
+  </si>
+  <si>
+    <t>2025-01-09,West,Store-030,Sports Shoes,Footwear,1,59.99,0,60.0,59.99,UPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-09,West,Store-030,White Socks,Accessories,,4.50,0,,,"" </t>
+  </si>
+  <si>
+    <t>2025-01-10,North,Store-001,Black Jacket,Outerwear,2,89.99,10,161.982,161.98,Credit Card</t>
+  </si>
+  <si>
+    <t>2025-01-10,North,Store-001,Gift Card,Other,1,100,0,100,100,Credit Card</t>
+  </si>
+  <si>
+    <t>,South,Store-014,Red T-Shirt,Menswear,1,19.99,0,19.99,19.99,Cash</t>
+  </si>
+  <si>
+    <t>2025-01-10,South,Store-014,Red T-Shirt,MENSWEAR,1,,0,,19.99,Cash</t>
+  </si>
+  <si>
+    <t>2025-01-11,East,Store-007,Blue Jeans,MENSWEAR,1,49.5,5,47.025,47.02,Card</t>
+  </si>
+  <si>
+    <t>2025-01-11,East,Store-007,Running Shorts,SportsWear,1,24.99,0,24.99,24.99,Credit Card</t>
+  </si>
+  <si>
+    <t>1️⃣ DATA VALIDATION (BEFORE ANY KPI)</t>
+  </si>
+  <si>
+    <t>4️⃣ VALIDATION TABLE (YOU MUST CREATE THIS)</t>
+  </si>
+  <si>
+    <t>A. Row Count &amp; Sanity Check</t>
+  </si>
+  <si>
+    <t>Included Rows</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Count total rows</t>
+  </si>
+  <si>
+    <t>Excl. refunds</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Count rows by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Transaction_Type</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Header</t>
+  </si>
+  <si>
+    <t>Sale + Refund</t>
+  </si>
+  <si>
+    <t>Finance view</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>Refund only</t>
+  </si>
+  <si>
+    <t>Loss indicator</t>
+  </si>
+  <si>
+    <t>Zero-Qty</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">👉 Purpose: Know </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>what you’re summing</t>
+    </r>
+  </si>
+  <si>
+    <t>B. Financial Consistency Check</t>
+  </si>
+  <si>
+    <t>Verify:</t>
+  </si>
+  <si>
+    <r>
+      <t>Sales_Calculated = Revenue_Raw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (where applicable)</t>
+    </r>
+  </si>
+  <si>
+    <t>Except 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Refund rows produce </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>negative revenue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zero-Qty rows produce </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zero revenue</t>
+    </r>
+  </si>
+  <si>
+    <t>2️⃣ KPI DEFINITIONS</t>
+  </si>
+  <si>
+    <t>KPI 1: Gross Sales</t>
+  </si>
+  <si>
+    <t>(Excluding Refund &amp; 0 Qty)</t>
+  </si>
+  <si>
+    <t>KPI 2: Net Revenue</t>
+  </si>
+  <si>
+    <t>(Including Refund )</t>
+  </si>
+  <si>
+    <t>KPI 3: Total Quantity Sold</t>
+  </si>
+  <si>
+    <t>KPI 4: Refund Amount</t>
+  </si>
+  <si>
+    <t>KPI 5: Average Order Value (AOV – TEMPORARY)</t>
+  </si>
+  <si>
+    <t>Net Revenue / Number of Sale Transactions</t>
+  </si>
 </sst>
 </file>
 
@@ -485,7 +737,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +784,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -568,7 +833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -625,6 +890,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,7 +938,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[DAY-4.xlsx]Dashboard!PivotTable19</c:name>
+    <c:name>[retail_revenue_analysis.xlsx]Dashboard!PivotTable19</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1087,7 +1369,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[DAY-4.xlsx]Dashboard!PivotTable24</c:name>
+    <c:name>[retail_revenue_analysis.xlsx]Dashboard!PivotTable24</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1956,7 +2238,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2211,7 +2493,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4668,6 +4950,158 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Clean_Data"/>
+      <sheetName val="KPIs"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="K2">
+            <v>39.979999999999997</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="K3">
+            <v>44.550000000000004</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="K4">
+            <v>49.5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>170.97149999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>15.993998999999999</v>
+          </cell>
+          <cell r="M6">
+            <v>-3.9960009999999997</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>22.5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="K9">
+            <v>71.992000000000004</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="K10">
+            <v>99</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="K11">
+            <v>24.99</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="K12">
+            <v>13.5</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="K13">
+            <v>13.5</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="K15">
+            <v>89.99</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="K16">
+            <v>24.99</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="K17">
+            <v>49.98</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="K18">
+            <v>19.989999999999998</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="K19">
+            <v>49.5</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="K20">
+            <v>49.5</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="K21">
+            <v>59.99</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="K22">
+            <v>59.99</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="K23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="K24">
+            <v>161.982</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="K25">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="K26">
+            <v>19.989999999999998</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="K27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="K28">
+            <v>47.024999999999999</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="K29">
+            <v>24.99</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6359,11 +6793,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E8ADE2-AD4B-4DAC-8892-D90CDF5B4457}">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F725C4-E01B-4F23-BD42-0A00187B1C08}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="L2:L29 A2:A29"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7750,11 +8354,234 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A87E936-54FB-4E49-AA27-C88FC9C39386}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75">
+      <c r="A1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.649999999999999">
+      <c r="A3" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="24">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <f>F19</f>
+        <v>1320.3984980000002</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3">
+        <f>F21</f>
+        <v>1304</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="24">
+        <v>26</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3">
+        <f>F25</f>
+        <v>-20</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.649999999999999">
+      <c r="A11" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75">
+      <c r="A17" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75">
+      <c r="A19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="17">
+        <f>SUM([1]Clean_Data!K2:K7,[1]Clean_Data!K9:K13,[1]Clean_Data!K15:K29)+[1]Clean_Data!M6</f>
+        <v>1320.3984980000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75">
+      <c r="A21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
+      <c r="A23" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75">
+      <c r="A25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75">
+      <c r="A27" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="28">
+        <f>F21/F6</f>
+        <v>50.153846153846153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81CABFA-5F0B-4B71-BC6A-78F3076559B2}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="141" workbookViewId="0">
+    <sheetView zoomScale="45" zoomScaleNormal="141" workbookViewId="0">
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
